--- a/mcmaster_excel/Alloy_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Alloy_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.213"</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.059"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>IP8, T8</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F835</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>96452A456</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$10.35</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F835</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>96452A106</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17.32</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -693,17 +605,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>96452A108</t>
+          <t>96452A456</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>$10.35</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -765,17 +677,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>96452A110</t>
+          <t>96452A106</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -837,17 +749,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>96452A530</t>
+          <t>96452A108</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +791,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -894,7 +806,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -914,17 +826,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>96452A144</t>
+          <t>96452A110</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -951,12 +863,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -966,7 +878,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -981,22 +893,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>96452A146</t>
+          <t>96452A530</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +970,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>96452A148</t>
+          <t>96452A144</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1130,12 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>96452A150</t>
+          <t>96452A146</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1197,17 +1109,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>96452A563</t>
+          <t>96452A148</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1239,12 +1151,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1254,7 +1166,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1274,17 +1186,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>96452A190</t>
+          <t>96452A150</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1311,12 +1223,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1326,7 +1238,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1341,22 +1253,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>96452A192</t>
+          <t>96452A563</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>96452A194</t>
+          <t>96452A190</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>96452A197</t>
+          <t>96452A192</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1527,12 +1439,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1542,7 +1454,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1562,17 +1474,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>96452A238</t>
+          <t>96452A194</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1599,12 +1511,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1614,7 +1526,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1634,17 +1546,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>96452A242</t>
+          <t>96452A197</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>96452A245</t>
+          <t>96452A238</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>96452A246</t>
+          <t>96452A242</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1845,22 +1757,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>96452A742</t>
+          <t>96452A245</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1922,17 +1834,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>96452A311</t>
+          <t>96452A246</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1989,17 +1901,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>96452A314</t>
+          <t>96452A742</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>96452A319</t>
+          <t>96452A311</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>96452A331</t>
+          <t>96452A314</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2175,12 +2087,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2190,7 +2102,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2210,17 +2122,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>96452A535</t>
+          <t>96452A319</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2247,12 +2159,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2262,7 +2174,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2282,17 +2194,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>96452A537</t>
+          <t>96452A331</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2354,12 +2266,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>96452A540</t>
+          <t>96452A535</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>96452A542</t>
+          <t>96452A537</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2463,12 +2375,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2478,7 +2390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>IP40, T40</t>
+          <t>IP27, T27</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2498,17 +2410,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>96452A578</t>
+          <t>96452A540</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>13.62</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2535,12 +2447,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2550,7 +2462,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>IP40, T40</t>
+          <t>IP27, T27</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2570,17 +2482,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>96452A581</t>
+          <t>96452A542</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2637,17 +2549,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>96452A585</t>
+          <t>96452A578</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2679,12 +2591,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2694,7 +2606,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>IP45, T45</t>
+          <t>IP40, T40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2709,22 +2621,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>96452A619</t>
+          <t>96452A581</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2751,12 +2663,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.199"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2766,7 +2678,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>IP45, T45</t>
+          <t>IP40, T40</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2786,17 +2698,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>96452A622</t>
+          <t>96452A585</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2858,12 +2770,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>96452A628</t>
+          <t>96452A619</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2895,12 +2807,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2910,7 +2822,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>IP45, T45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2925,34 +2837,34 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90910A120</t>
+          <t>96452A622</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Zinc-Plated Alloy Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2967,12 +2879,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2982,7 +2894,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>IP45, T45</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2997,34 +2909,34 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90910A123</t>
+          <t>96452A628</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Zinc-Plated Alloy Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3069,17 +2981,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90910A816</t>
+          <t>90910A120</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3096,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3141,17 +3053,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90910A817</t>
+          <t>90910A123</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3168,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3183,12 +3095,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3198,7 +3110,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3218,17 +3130,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90910A818</t>
+          <t>90910A816</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3240,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3255,12 +3167,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3270,7 +3182,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3285,22 +3197,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90910A511</t>
+          <t>90910A817</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3312,17 +3224,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>49/64"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3362,12 +3274,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90910A819</t>
+          <t>90910A818</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3384,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3434,12 +3346,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>90910A512</t>
+          <t>90910A511</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3456,17 +3368,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>49/64"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3501,17 +3413,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90910A513</t>
+          <t>90910A819</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3528,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3578,12 +3490,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90910A514</t>
+          <t>90910A512</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3600,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3615,12 +3527,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3630,7 +3542,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3645,22 +3557,22 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90910A821</t>
+          <t>90910A513</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3672,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3687,12 +3599,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3702,7 +3614,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3717,22 +3629,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90910A822</t>
+          <t>90910A514</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3744,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3789,17 +3701,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90910A515</t>
+          <t>90910A821</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3866,12 +3778,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90910A823</t>
+          <t>90910A822</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3888,7 +3800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3938,12 +3850,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>90910A516</t>
+          <t>90910A515</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>13.41</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3960,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4005,17 +3917,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>90910A517</t>
+          <t>90910A823</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4032,7 +3944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4082,12 +3994,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>90910A518</t>
+          <t>90910A516</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4104,7 +4016,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4154,12 +4066,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>90910A519</t>
+          <t>90910A517</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4176,7 +4088,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4226,12 +4138,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>90910A521</t>
+          <t>90910A518</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4248,7 +4160,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4263,12 +4175,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4278,7 +4190,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4293,22 +4205,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>90910A824</t>
+          <t>90910A519</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4320,7 +4232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4335,12 +4247,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4350,7 +4262,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4365,22 +4277,22 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>90910A825</t>
+          <t>90910A521</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4392,7 +4304,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4437,17 +4349,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>90910A522</t>
+          <t>90910A824</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4464,7 +4376,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4514,12 +4426,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>90910A826</t>
+          <t>90910A825</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4536,7 +4448,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4586,12 +4498,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>90910A523</t>
+          <t>90910A522</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4608,7 +4520,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4653,17 +4565,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>90910A524</t>
+          <t>90910A826</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>18.10</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4680,7 +4592,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4730,12 +4642,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>90910A525</t>
+          <t>90910A523</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>15.30</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4752,7 +4664,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4802,12 +4714,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>90910A526</t>
+          <t>90910A524</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4824,7 +4736,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4869,17 +4781,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>90910A527</t>
+          <t>90910A525</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4896,7 +4808,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4941,17 +4853,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>90910A528</t>
+          <t>90910A526</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4968,7 +4880,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5013,22 +4925,22 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>90910A827</t>
+          <t>90910A527</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5040,7 +4952,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5085,22 +4997,22 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>90910A828</t>
+          <t>90910A528</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5112,7 +5024,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5162,12 +5074,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>90910A829</t>
+          <t>90910A827</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5184,7 +5096,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5234,12 +5146,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>90910A831</t>
+          <t>90910A828</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5256,7 +5168,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5306,12 +5218,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>90910A832</t>
+          <t>90910A829</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>17.73</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5328,7 +5240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5343,12 +5255,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5358,7 +5270,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5373,22 +5285,22 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>90910A491</t>
+          <t>90910A831</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>31.34</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5400,7 +5312,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5415,12 +5327,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5430,7 +5342,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5445,22 +5357,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>90910A492</t>
+          <t>90910A832</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5472,7 +5384,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5517,17 +5429,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>90910A493</t>
+          <t>90910A491</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>31.34</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5544,7 +5456,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5594,12 +5506,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>90910A529</t>
+          <t>90910A492</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5616,7 +5528,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5666,12 +5578,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>90910A531</t>
+          <t>90910A493</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5688,7 +5600,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5738,12 +5650,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>90910A532</t>
+          <t>90910A529</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5760,7 +5672,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5810,12 +5722,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>90910A533</t>
+          <t>90910A531</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>14.70</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5832,7 +5744,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5882,12 +5794,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>90910A494</t>
+          <t>90910A532</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5904,7 +5816,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5954,12 +5866,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>90910A534</t>
+          <t>90910A533</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>14.70</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5976,7 +5888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6026,12 +5938,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>90910A535</t>
+          <t>90910A494</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>19.09</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6048,70 +5960,214 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>IP27, T27</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F835</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>90910A534</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2 1/2"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>IP27, T27</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F835</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>90910A535</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>3"</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Partially Threaded</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.437"</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0.132"</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Torx Plus</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>IP27, T27</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>120,000</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F835</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>120,000</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F835</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>90910A536</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>22.21</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>Zinc-Plated Alloy Steel</t>
         </is>
